--- a/rhla_analysis/rhla1_3_uniform_result/k4.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002627038761022621</v>
+        <v>0.002627038761022611</v>
       </c>
       <c r="B2" t="n">
         <v>0.08458332392661906</v>
@@ -466,12 +466,12 @@
         <v>0.08184143222506395</v>
       </c>
       <c r="D2" t="n">
-        <v>32.19721200219121</v>
+        <v>32.19721200219134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002024306092218613</v>
+        <v>0.002024306092218599</v>
       </c>
       <c r="B3" t="n">
         <v>0.0789772945589174</v>
@@ -480,12 +480,12 @@
         <v>0.1061381074168798</v>
       </c>
       <c r="D3" t="n">
-        <v>39.01450223486672</v>
+        <v>39.014502234867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002503395965115401</v>
+        <v>0.002503395965115411</v>
       </c>
       <c r="B4" t="n">
         <v>0.07128082062564355</v>
@@ -494,7 +494,7 @@
         <v>0.1104006820119352</v>
       </c>
       <c r="D4" t="n">
-        <v>28.47365004135798</v>
+        <v>28.47365004135787</v>
       </c>
     </row>
     <row r="5">
@@ -502,46 +502,46 @@
         <v>0.008897880060735648</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08226127758598635</v>
+        <v>0.08226127758598636</v>
       </c>
       <c r="C5" t="n">
         <v>0.09036658141517477</v>
       </c>
       <c r="D5" t="n">
-        <v>9.245042304962835</v>
+        <v>9.245042304962837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004855374943971714</v>
+        <v>0.004855374943971734</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07970680135121976</v>
+        <v>0.07970680135121977</v>
       </c>
       <c r="C6" t="n">
         <v>0.09846547314578005</v>
       </c>
       <c r="D6" t="n">
-        <v>16.41619901057926</v>
+        <v>16.41619901057919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006211668179038054</v>
+        <v>0.006211668179038076</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0803314909465713</v>
+        <v>0.08033149094657131</v>
       </c>
       <c r="C7" t="n">
         <v>0.09249786871270248</v>
       </c>
       <c r="D7" t="n">
-        <v>12.93235385909032</v>
+        <v>12.93235385909027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005899220593179941</v>
+        <v>0.005899220593179965</v>
       </c>
       <c r="B8" t="n">
         <v>0.08548344235868235</v>
@@ -550,12 +550,12 @@
         <v>0.1044330775788576</v>
       </c>
       <c r="D8" t="n">
-        <v>14.49063329781384</v>
+        <v>14.49063329781378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003547966808003295</v>
+        <v>0.003547966808003301</v>
       </c>
       <c r="B9" t="n">
         <v>0.07460495334535595</v>
@@ -564,12 +564,12 @@
         <v>0.1044330775788576</v>
       </c>
       <c r="D9" t="n">
-        <v>21.02752291173257</v>
+        <v>21.02752291173253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.009231548901780334</v>
+        <v>0.009231548901780276</v>
       </c>
       <c r="B10" t="n">
         <v>0.0857928405635372</v>
@@ -578,12 +578,12 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D10" t="n">
-        <v>9.293439429973855</v>
+        <v>9.293439429973914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008870243253299295</v>
+        <v>0.008870243253299281</v>
       </c>
       <c r="B11" t="n">
         <v>0.08375328697430393</v>
@@ -592,7 +592,7 @@
         <v>0.08354646206308611</v>
       </c>
       <c r="D11" t="n">
-        <v>9.442050751331067</v>
+        <v>9.442050751331081</v>
       </c>
     </row>
   </sheetData>
